--- a/DATOS/documentos/Aire_/limites.xlsx
+++ b/DATOS/documentos/Aire_/limites.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\git\ISI\DATOS\documentos\Aire_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Manuel\git\ISI\DATOS\documentos\Aire_\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="limites" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Elemento</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>Sulfuro de hidrogeno</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Benceno</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>Tolueno</t>
+  </si>
+  <si>
+    <t>XIL</t>
+  </si>
+  <si>
+    <t>OXL</t>
+  </si>
+  <si>
+    <t>Xileno</t>
+  </si>
+  <si>
+    <t>OrtoXileno</t>
+  </si>
+  <si>
+    <t>PM25</t>
+  </si>
+  <si>
+    <t>Particulas en suspension 2.5</t>
   </si>
 </sst>
 </file>
@@ -913,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,23 +1025,23 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">C3*0.2*5</f>
+        <f t="shared" ref="D3:D14" si="0">C3*0.2*5</f>
         <v>40</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3*0.2*4</f>
+        <f t="shared" ref="E3:E14" si="1">C3*0.2*4</f>
         <v>32</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">C3*0.2*3</f>
+        <f t="shared" ref="F3:F14" si="2">C3*0.2*3</f>
         <v>24</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">C3*0.2*2</f>
+        <f t="shared" ref="G3:G14" si="3">C3*0.2*2</f>
         <v>16</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="4">C3*0.2*1</f>
+        <f t="shared" ref="H3:H14" si="4">C3*0.2*1</f>
         <v>8</v>
       </c>
       <c r="I3" t="s">
@@ -1196,30 +1226,200 @@
         <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2800000000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>12.000000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
